--- a/groups.xlsx
+++ b/groups.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morea\OneDrive - Area Science Park\Documents\_DataScience\labour-market-network\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://areasciencepark-my.sharepoint.com/personal/fabio_morea_areasciencepark_it/Documents/Documents/_DataScience/labour-market-network/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F983B8C0-C79B-459F-90BC-C03C143E2EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{F983B8C0-C79B-459F-90BC-C03C143E2EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2A9D4E5-85BF-4B9F-BB46-DF96CC695561}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{5836E782-1C19-4259-A379-7104C5C358B0}"/>
+    <workbookView xWindow="2148" yWindow="2148" windowWidth="16584" windowHeight="9420" xr2:uid="{5836E782-1C19-4259-A379-7104C5C358B0}"/>
   </bookViews>
   <sheets>
     <sheet name="professions" sheetId="5" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10646" uniqueCount="1676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10646" uniqueCount="1679">
   <si>
     <t>q3</t>
   </si>
@@ -5084,6 +5084,15 @@
   </si>
   <si>
     <t>Colonna1</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>FAR</t>
+  </si>
+  <si>
+    <t>AGR</t>
   </si>
 </sst>
 </file>
@@ -5568,8 +5577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C288B038-CED1-4F52-BA26-B73265DD2F31}">
   <dimension ref="A1:F458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="D241" sqref="D241"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="C387" sqref="C387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12743,7 +12752,7 @@
         <v>996</v>
       </c>
       <c r="F358" t="s">
-        <v>1003</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -12763,7 +12772,7 @@
         <v>996</v>
       </c>
       <c r="F359" t="s">
-        <v>1003</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -12783,7 +12792,7 @@
         <v>996</v>
       </c>
       <c r="F360" t="s">
-        <v>1003</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -12803,7 +12812,7 @@
         <v>996</v>
       </c>
       <c r="F361" t="s">
-        <v>1003</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -12823,7 +12832,7 @@
         <v>996</v>
       </c>
       <c r="F362" t="s">
-        <v>1003</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -12843,7 +12852,7 @@
         <v>996</v>
       </c>
       <c r="F363" t="s">
-        <v>1003</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -12863,7 +12872,7 @@
         <v>996</v>
       </c>
       <c r="F364" t="s">
-        <v>1003</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -12883,7 +12892,7 @@
         <v>996</v>
       </c>
       <c r="F365" t="s">
-        <v>1003</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -12903,7 +12912,7 @@
         <v>996</v>
       </c>
       <c r="F366" t="s">
-        <v>1003</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -12923,7 +12932,7 @@
         <v>996</v>
       </c>
       <c r="F367" t="s">
-        <v>1003</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -12943,7 +12952,7 @@
         <v>996</v>
       </c>
       <c r="F368" t="s">
-        <v>1003</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -12963,7 +12972,7 @@
         <v>996</v>
       </c>
       <c r="F369" t="s">
-        <v>1003</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -12983,7 +12992,7 @@
         <v>996</v>
       </c>
       <c r="F370" t="s">
-        <v>1003</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -13003,7 +13012,7 @@
         <v>996</v>
       </c>
       <c r="F371" t="s">
-        <v>1003</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -13023,7 +13032,7 @@
         <v>996</v>
       </c>
       <c r="F372" t="s">
-        <v>1003</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -13043,7 +13052,7 @@
         <v>996</v>
       </c>
       <c r="F373" t="s">
-        <v>1003</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -13063,7 +13072,7 @@
         <v>996</v>
       </c>
       <c r="F374" t="s">
-        <v>1003</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -13083,7 +13092,7 @@
         <v>996</v>
       </c>
       <c r="F375" t="s">
-        <v>1003</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -13103,7 +13112,7 @@
         <v>996</v>
       </c>
       <c r="F376" t="s">
-        <v>1003</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
@@ -13123,7 +13132,7 @@
         <v>996</v>
       </c>
       <c r="F377" t="s">
-        <v>1003</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -13143,7 +13152,7 @@
         <v>996</v>
       </c>
       <c r="F378" t="s">
-        <v>1003</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -13163,7 +13172,7 @@
         <v>996</v>
       </c>
       <c r="F379" t="s">
-        <v>1003</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -13183,7 +13192,7 @@
         <v>996</v>
       </c>
       <c r="F380" t="s">
-        <v>1003</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -13203,7 +13212,7 @@
         <v>996</v>
       </c>
       <c r="F381" t="s">
-        <v>1003</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -13223,7 +13232,7 @@
         <v>996</v>
       </c>
       <c r="F382" t="s">
-        <v>1003</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -13243,7 +13252,7 @@
         <v>996</v>
       </c>
       <c r="F383" t="s">
-        <v>1003</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
@@ -13263,7 +13272,7 @@
         <v>996</v>
       </c>
       <c r="F384" t="s">
-        <v>1003</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -13283,7 +13292,7 @@
         <v>996</v>
       </c>
       <c r="F385" t="s">
-        <v>1003</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -13303,7 +13312,7 @@
         <v>996</v>
       </c>
       <c r="F386" t="s">
-        <v>1003</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -14748,8 +14757,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
